--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/DebtInvest.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/invest/DebtInvest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="5840" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,6 @@
     <t>environment</t>
   </si>
   <si>
-    <t>sit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>idCard</t>
   </si>
   <si>
@@ -136,9 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-  </si>
-  <si>
     <t>${IdCardGenerator.generateUnUsedIdCardNumberByAge(20)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +155,14 @@
     <rPh sb="2" eb="3">
       <t>ji'h</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${MobileUtil.getUnRegisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${EnvUtils.getEnv()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +516,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -540,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -561,25 +562,25 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
       <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
       <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
       <c r="O1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -590,52 +591,52 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
